--- a/biology/Botanique/Violette_de_Reichenbach/Violette_de_Reichenbach.xlsx
+++ b/biology/Botanique/Violette_de_Reichenbach/Violette_de_Reichenbach.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Viola reichenbachiana
 La Violette des bois ou Violette de Reichenbach (Viola reichenbachiana) est une espèce de plantes herbacées de la famille des Violacées.
@@ -514,13 +526,18 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractéristiques
-Appareil végétatif :
-Les pédoncules partent à une certaine distance au dessus du sol, sur des tiges aériennes plus ou moins dressées et feuillées [1]
-Les stipules sont frangées[1]
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Appareil végétatif :
+Les pédoncules partent à une certaine distance au dessus du sol, sur des tiges aériennes plus ou moins dressées et feuillées 
+Les stipules sont frangées
 Organes reproducteurs
 Couleur dominante des fleurs : bleu
-Seuls deux pétales sont dressés[1]
+Seuls deux pétales sont dressés
 Période de floraison : (mars) avril - mai (juin)
 Inflorescence : fleur solitaire latérale
 Sexualité : hermaphrodite
@@ -560,7 +577,9 @@
           <t>Confusion possible</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ne pas la confondre avec la Violette odorante qui a des feuilles couverte de petits poils et qui, comme son nom l'indique, est odorante contrairement à la Violette des bois.
 </t>
